--- a/saves/xlsx/missing_demographics.xlsx
+++ b/saves/xlsx/missing_demographics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,3868 +440,4032 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>is_scene_aborted</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>logger_version</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>session_uuid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>is_a_one_triage_file</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>file_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>session_file_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>responder_type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>site_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>encounter_layout</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>c8fb0ff7-403a-40d2-8ecb-6537bd4fae16</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.0759.csv</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>43ce12a6-e8c6-446c-bc3a-1b8820b9490f</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.0919.csv</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>30479d0b-79c8-4672-84c2-5bce9ec0972b</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1214.csv</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>5da6af4d-f3bc-4e05-9c5b-cb7d5aa68e7e</t>
         </is>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1219.csv</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>e9a830dc-ee6e-458b-ad43-84ee338a9bd2</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1247.csv</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>b0bc6f05-879c-4538-b0c0-d91f20b0ac39</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1306.csv</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>fc2ed173-5990-4461-9a20-ac856bbb946b</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1621.csv</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>d3ad6b20-821b-4821-a289-fe4eab2c940b</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1632.csv</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>8f02368f-5fc2-4553-a7b3-95b98a38387a</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.14.23.1642.csv</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>44999</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>79b80e8f-b8fe-40e0-86d2-9aa7edc2da59</t>
         </is>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.15.23.0810.csv</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>bcfe163a-fb5b-43f8-8351-cb71adbfd6af</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.15.23.0944.csv</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>f92400e2-63f5-4bb8-95b3-dcf065e17414</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/03.15.23.1338.csv</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>45000</v>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>dfd3aa1c-7b73-43a7-80c0-80beeabcd985</t>
         </is>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.19.23.1057.csv</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>1df10bfd-0f85-42ff-a873-36dfe05df77b</t>
         </is>
       </c>
-      <c r="C15" t="b">
+      <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.19.23.1130.csv</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="F15" s="2" t="n">
         <v>45035</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>de04bec3-9503-467c-9c49-675720c4bab0</t>
         </is>
       </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.20.23.1224.csv</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>61dba1bb-2326-48f9-968f-9e0e4c867eee</t>
         </is>
       </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.0934.csv</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>89ec8f32-0018-48e7-8cad-c86bd73257f2</t>
         </is>
       </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.0956.csv</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="F18" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>16359508-f91b-4f85-baeb-dade7d574a61</t>
         </is>
       </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1013.csv</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="F19" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>84282ed0-0e63-44e0-8b39-5156e3c868d0</t>
         </is>
       </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1031.csv</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="F20" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>ee694b2c-dad2-4b9a-acc9-4e025e1b299b</t>
         </is>
       </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1105.csv</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="F21" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>33f3d2d4-49b4-43cf-80d4-cd7d5993aca4</t>
         </is>
       </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1132.csv</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="F22" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>dcd4a197-ba73-4d2f-a2aa-8ff3206219b9</t>
         </is>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1231.csv</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="F23" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>2d511693-6144-45ee-89df-aba0ca629c84</t>
         </is>
       </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1254.csv</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="F24" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>89f0e2ad-384b-4ef0-ab96-d865521f88ce</t>
         </is>
       </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1322.csv</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="F25" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>eecb1d19-1d05-4725-9289-eb02d601cdf3</t>
         </is>
       </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1342.csv</t>
         </is>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="F26" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>21b0f09b-03b4-4af8-ac65-11ab1e5458d8</t>
         </is>
       </c>
-      <c r="C27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/04.25.23.1403.csv</t>
         </is>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="F27" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0950437e-94b0-45bf-8d11-dd446fd0e4a2</t>
         </is>
       </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.20.0828.csv</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="F28" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>c849bff1-beb3-44ab-bdea-751d75878437</t>
         </is>
       </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.0740.csv</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="F29" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>6e3a5d8b-12c4-4afd-9a2e-619eb5b72b23</t>
         </is>
       </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.0817.csv</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="F30" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>5325cdbf-d627-4aba-b5b4-9a62240d599f</t>
         </is>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.0832.csv</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="F31" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>67f7c9c2-a102-4f31-b22e-2004002e91c8</t>
         </is>
       </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.0957.csv</t>
         </is>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="F32" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>2c981992-899d-46b1-b92c-d086e21118db</t>
         </is>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.1110.csv</t>
         </is>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="F33" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>054918a7-9634-40fe-8356-2ce0c9cc376f</t>
         </is>
       </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.1308.csv</t>
         </is>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="F34" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>31d9c549-d016-4e44-8262-1d51b7adde29</t>
         </is>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.22.1331.csv</t>
         </is>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>888de8e3-f293-4564-bc6a-9c1214f5064b</t>
         </is>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/11.30.23.1358.csv</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="F36" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>c090fff8-5f81-40c5-b313-5fb7ce42ab9f</t>
         </is>
       </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.0807.csv</t>
         </is>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>bd13e705-6cf0-4adc-a628-c605c4ae6a3e</t>
         </is>
       </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.0830.csv</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="F38" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>e7ea73c9-dc1c-47cc-bb13-996b4069c73e</t>
         </is>
       </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1016.csv</t>
         </is>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="F39" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>56c0b2ce-d12c-440a-bcae-3d6163d5e494</t>
         </is>
       </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1047.csv</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="F40" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>02c225ff-2cb4-4e3e-b111-fbafa3dbec76</t>
         </is>
       </c>
-      <c r="C41" t="b">
+      <c r="D41" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1236.csv</t>
         </is>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="F41" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>17962d45-8e90-4b50-86e7-77451042aac8</t>
         </is>
       </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1245.csv</t>
         </is>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="F42" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>6037b1d3-eff2-4317-9372-768236fbae91</t>
         </is>
       </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1315.csv</t>
         </is>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="F43" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>2270eaba-f9b5-4f96-8a5e-b69276846474</t>
         </is>
       </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1346.csv</t>
         </is>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="F44" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0bfe46ef-6644-441e-a903-5445f2ee4fd5</t>
         </is>
       </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.01.22.1455.csv</t>
         </is>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="F45" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>26cf9b5b-3395-49f1-a3e5-7fefd22b3a6b</t>
         </is>
       </c>
-      <c r="C46" t="b">
+      <c r="D46" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.02.22.1253.csv</t>
         </is>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="F46" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>ea7d43f6-a7ed-4bc7-8002-f056ee415082</t>
         </is>
       </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.02.22.1403.csv</t>
         </is>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="F47" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>ddf26e7a-10f4-4e7f-85d4-f147bea1acb5</t>
         </is>
       </c>
-      <c r="C48" t="b">
+      <c r="D48" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.02.22.1440.csv</t>
         </is>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="F48" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>f7b46b02-bc04-42d6-a3aa-abd797948735</t>
         </is>
       </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.02.22.1450.csv</t>
         </is>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="F49" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>ad39e17f-169a-4062-95af-cd6f194cdace</t>
         </is>
       </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.0811.csv</t>
         </is>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="F50" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>72388f54-3a93-445e-b5fa-4a71640965fb</t>
         </is>
       </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1025.csv</t>
         </is>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="F51" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>a935b4f6-2300-41b3-bcd7-14cd70b222ed</t>
         </is>
       </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1303.csv</t>
         </is>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="F52" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>5c2a444a-9c8d-4c65-bef2-c5f47f6b258d</t>
         </is>
       </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1331.csv</t>
         </is>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="F53" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>14678e1f-aa1c-4a67-a31f-65dd3e2238ca</t>
         </is>
       </c>
-      <c r="C54" t="b">
+      <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1343.csv</t>
         </is>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="F54" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>2e8678fd-fdc4-40c2-8122-09f1e31b8d2a</t>
         </is>
       </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1410.csv</t>
         </is>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="F55" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>3165ffa6-6516-412b-a9c0-52bdecfa75e1</t>
         </is>
       </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>All CSV files renamed by date/12.06.22.1434.csv</t>
         </is>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="F56" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>1066671d-2a1d-4744-b66f-e4b48548701f</t>
         </is>
       </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/1066671d-2a1d-4744-b66f-e4b48548701f.csv</t>
         </is>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="F57" s="2" t="n">
         <v>45148</v>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>21526c63-79bb-4c7b-87c2-9e7525d8515f</t>
         </is>
       </c>
-      <c r="C58" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/21526c63-79bb-4c7b-87c2-9e7525d8515f.csv</t>
         </is>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="F58" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>2703ca93-175b-4351-b0be-c67e23438d8f</t>
         </is>
       </c>
-      <c r="C59" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/2703ca93-175b-4351-b0be-c67e23438d8f.csv</t>
         </is>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="F59" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>54aaf31a-22bc-46f2-a810-8564161bf8d0</t>
         </is>
       </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/54aaf31a-22bc-46f2-a810-8564161bf8d0.csv</t>
         </is>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="F60" s="2" t="n">
         <v>45148</v>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>7c2549d4-97a4-4389-bd03-029396714f59</t>
         </is>
       </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/7c2549d4-97a4-4389-bd03-029396714f59.csv</t>
         </is>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="F61" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>86c4cdb2-0073-43fb-b60a-dc13fa46a9ca</t>
         </is>
       </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/86c4cdb2-0073-43fb-b60a-dc13fa46a9ca.csv</t>
         </is>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="F62" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>8ec8afba-8533-4915-898f-5769c1258c61</t>
         </is>
       </c>
-      <c r="C63" t="b">
+      <c r="D63" t="b">
         <v>0</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/8ec8afba-8533-4915-898f-5769c1258c61.csv</t>
         </is>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="F63" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>91f31664-43ad-4405-a763-0d58a8afc36a</t>
         </is>
       </c>
-      <c r="C64" t="b">
-        <v>1</v>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/91f31664-43ad-4405-a763-0d58a8afc36a.csv</t>
         </is>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="F64" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>b51296d5-52e5-40db-8448-91a5d935b661</t>
         </is>
       </c>
-      <c r="C65" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/b51296d5-52e5-40db-8448-91a5d935b661.csv</t>
         </is>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="F65" s="2" t="n">
         <v>45148.42916666667</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>DCEMS-RND 2</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>First 11</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>be877d11-14b3-432c-be4d-b3e0d236f6e1</t>
         </is>
       </c>
-      <c r="C66" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/be877d11-14b3-432c-be4d-b3e0d236f6e1.csv</t>
         </is>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="F66" s="2" t="n">
         <v>45154</v>
       </c>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>3cc73a53-22fd-4ce9-8696-6308f544dea2</t>
         </is>
       </c>
-      <c r="C67" t="b">
+      <c r="D67" t="b">
         <v>0</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>DCEMS Round 2 only triage sessions/Jacob R.csv</t>
         </is>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="F67" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>33b51683-fa6a-4dd3-82e5-de08bcc17c14</t>
         </is>
       </c>
-      <c r="C68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Disaster Day 2022/ARG_1019.csv</t>
         </is>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="F68" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>6cb3d605-3736-4255-bf3b-92473d9df21e</t>
         </is>
       </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>Disaster Day 2022/AS_0836.csv</t>
         </is>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="F69" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>2d26ca7b-1dbb-42e4-9bbf-bf0d131e2e06</t>
         </is>
       </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Disaster Day 2022/AW_0237.csv</t>
         </is>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="F70" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>a437d61b-adad-424f-9714-83382548fda2</t>
         </is>
       </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>Disaster Day 2022/BT_919.csv</t>
         </is>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="F71" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>09f30ce2-1507-4ef1-84f1-3dfb3e6d9b86</t>
         </is>
       </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>Disaster Day 2022/CH_1115.csv</t>
         </is>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="F72" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>578a0cfc-a256-4002-ba75-4a61d700204e</t>
         </is>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Disaster Day 2022/DG_1251.csv</t>
         </is>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="F73" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>2930a371-1187-4b98-adfc-19e095637e48</t>
         </is>
       </c>
-      <c r="C74" t="b">
+      <c r="D74" t="b">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Disaster Day 2022/EG_1112.csv</t>
         </is>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="F74" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>e249e6d4-c3d4-4e20-8fab-fa35fd59e871</t>
         </is>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Disaster Day 2022/HU_151.csv</t>
         </is>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="F75" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>851741c0-56b3-4702-8fd2-c946376840fc</t>
         </is>
       </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Disaster Day 2022/IP_236.csv</t>
         </is>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="F76" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>9cd41444-4813-45a8-81d0-a1d068184c8e</t>
         </is>
       </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>Disaster Day 2022/JD_0147.csv</t>
         </is>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="F77" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>433e6561-c9cd-48c8-91a8-0318e656996f</t>
         </is>
       </c>
-      <c r="C78" t="b">
+      <c r="D78" t="b">
         <v>0</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Disaster Day 2022/JF_0946.csv</t>
         </is>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="F78" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>aec5d448-c4e6-4af7-8e36-d258c7bb6f96</t>
         </is>
       </c>
-      <c r="C79" t="b">
+      <c r="D79" t="b">
         <v>0</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Disaster Day 2022/JS_1016.csv</t>
         </is>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="F79" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>27c2fa44-ba05-417c-ae95-317b06870dc9</t>
         </is>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>Disaster Day 2022/JS_321.csv</t>
         </is>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="F80" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>b26d61b8-9027-4b16-ba3b-bc337bc6e681</t>
         </is>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Disaster Day 2022/KF_951.csv</t>
         </is>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="F81" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>e353eee2-a630-40cd-b931-a98b12edd9b6</t>
         </is>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Disaster Day 2022/KS_1212.csv</t>
         </is>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="F82" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>9e0f8037-329b-496a-817a-daae83aa941f</t>
         </is>
       </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Disaster Day 2022/MG_0208.csv</t>
         </is>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="F83" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>991af001-9414-4a2d-8079-0663c4ddb1e4</t>
         </is>
       </c>
-      <c r="C84" t="b">
+      <c r="D84" t="b">
         <v>0</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Disaster Day 2022/MH_1135.csv</t>
         </is>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="F84" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>321db911-0ed9-421a-9219-bb02038ac660</t>
         </is>
       </c>
-      <c r="C85" t="b">
+      <c r="D85" t="b">
         <v>0</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Disaster Day 2022/ML_903.csv</t>
         </is>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="F85" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>b1ebfdc9-6338-4b80-ba76-947f8690bd91</t>
         </is>
       </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>Disaster Day 2022/MO_0101.csv</t>
         </is>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="F86" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>090d0988-3f81-4603-87e2-477538a6750c</t>
         </is>
       </c>
-      <c r="C87" t="b">
+      <c r="D87" t="b">
         <v>0</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Disaster Day 2022/MT_0950.csv</t>
         </is>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="F87" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>d11543fd-7b7f-4883-bd69-afe8128a76f2</t>
         </is>
       </c>
-      <c r="C88" t="b">
-        <v>1</v>
-      </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Disaster Day 2022/NL_0253.csv</t>
         </is>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="F88" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>38b995b3-fb77-4fda-b0b4-21f062ed6a38</t>
         </is>
       </c>
-      <c r="C89" t="b">
-        <v>1</v>
-      </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>Disaster Day 2022/PP_259.csv</t>
         </is>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="F89" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>26f08763-076e-4531-a6f7-f00232f664bd</t>
         </is>
       </c>
-      <c r="C90" t="b">
+      <c r="D90" t="b">
         <v>0</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Disaster Day 2022/RM_1031.csv</t>
         </is>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="F90" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>1046b7d9-5848-41b5-9438-cf0dc4dc6cbe</t>
         </is>
       </c>
-      <c r="C91" t="b">
-        <v>1</v>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>Disaster Day 2022/RV_0316.csv</t>
         </is>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="F91" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>a98adcc8-6df3-470d-961d-8248246472ca</t>
         </is>
       </c>
-      <c r="C92" t="b">
+      <c r="D92" t="b">
         <v>0</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Disaster Day 2022/SL_1155.csv</t>
         </is>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="F92" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>0dc94285-ba14-40aa-9745-76504502a5cc</t>
         </is>
       </c>
-      <c r="C93" t="b">
+      <c r="D93" t="b">
         <v>0</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Disaster Day 2022/TW_1019.csv</t>
         </is>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="F93" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>09024025-1320-4891-aefa-a497744ed3e2</t>
         </is>
       </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Disaster Day 2022/WB_1230.csv</t>
         </is>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="F94" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>1044049f-c7e0-4a16-98d3-e3826b4b8bfc</t>
         </is>
       </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>Disaster Day 2022/ZG_1056.csv</t>
         </is>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="F95" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>9a6d2f32-10fb-40ea-bacc-dd6a7d2f4a13</t>
         </is>
       </c>
-      <c r="C96" t="b">
+      <c r="D96" t="b">
         <v>0</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Disaster Day 2022/ZS_1000.csv</t>
         </is>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="F96" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>fe077b96-8e52-4e1a-8ec7-e5c5f46e65c5</t>
         </is>
       </c>
-      <c r="C97" t="b">
-        <v>1</v>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.0824r.csv</t>
         </is>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="F97" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>5d916938-e0d3-47ee-8f55-12bf12283ee1</t>
         </is>
       </c>
-      <c r="C98" t="b">
-        <v>1</v>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.0844r.csv</t>
         </is>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="F98" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>a40659ab-dfbf-43ab-91cb-72a48a82c426</t>
         </is>
       </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.0848r.csv</t>
         </is>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="F99" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>86366fd5-be94-43cc-a9e9-7c98609c0a66</t>
         </is>
       </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.0926r.csv</t>
         </is>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="F100" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>aca8a746-0f72-4c8d-87a5-70d836da8768</t>
         </is>
       </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1036r.csv</t>
         </is>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="F101" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>0667e56a-abe6-4097-9a56-33735f4855e2</t>
         </is>
       </c>
-      <c r="C102" t="b">
-        <v>1</v>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1037r.csv</t>
         </is>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="F102" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>c82e4612-4e6f-4834-bc7f-6092327c44fa</t>
         </is>
       </c>
-      <c r="C103" t="b">
-        <v>1</v>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1052r.csv</t>
         </is>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="F103" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>22e2c9a3-b93f-4f7f-896a-ca188c78505b</t>
         </is>
       </c>
-      <c r="C104" t="b">
-        <v>1</v>
-      </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1106r.csv</t>
         </is>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="F104" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>4ca5febe-0a4b-4c77-bd3e-6632ae760df1</t>
         </is>
       </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1119r.csv</t>
         </is>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="F105" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
         <is>
           <t>677d1c18-f292-4bcb-924d-52f5e762533f</t>
         </is>
       </c>
-      <c r="C106" t="b">
-        <v>1</v>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1131r.csv</t>
         </is>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="F106" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
         <is>
           <t>16373b36-886a-4d0d-9015-474d29d139cc</t>
         </is>
       </c>
-      <c r="C107" t="b">
-        <v>1</v>
-      </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1315r.csv</t>
         </is>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="F107" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
         <is>
           <t>9f03c005-21d8-4934-8bb9-7152347726d1</t>
         </is>
       </c>
-      <c r="C108" t="b">
-        <v>1</v>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.15.1316r.csv</t>
         </is>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="F108" s="2" t="n">
         <v>44635</v>
       </c>
-      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>daca96a3-b61d-4087-9747-cea6fd7e3a43</t>
         </is>
       </c>
-      <c r="C109" t="b">
-        <v>1</v>
-      </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.0844r.csv</t>
         </is>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="F109" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>ce41d7c3-9e24-4840-865f-3b7f7cd828f7</t>
         </is>
       </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.0901r.csv</t>
         </is>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="F110" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
         <is>
           <t>67ed9702-0908-454a-8069-7ca4a6f2bee9</t>
         </is>
       </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.0917r.csv</t>
         </is>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="F111" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>d8c6bf18-14e3-45f2-bfa1-9a904cb4b82b</t>
         </is>
       </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.0931r.csv</t>
         </is>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="F112" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
         <is>
           <t>75b3227f-2f3c-4fe0-b9b8-9e0fe3baa210</t>
         </is>
       </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.0955r.csv</t>
         </is>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="F113" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="inlineStr">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>5c720560-85f5-4bb1-9aa5-41207f6259a2</t>
         </is>
       </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1019r.csv</t>
         </is>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="F114" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
         <is>
           <t>009b848c-ea64-4f22-bd40-711213a3d327</t>
         </is>
       </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1039r.csv</t>
         </is>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="F115" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>0d3e0c62-db52-40f9-9ee8-7fc84a1dcbf2</t>
         </is>
       </c>
-      <c r="C116" t="b">
-        <v>1</v>
-      </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1104r.csv</t>
         </is>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="F116" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="inlineStr">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>24205a11-9e21-44b7-a565-985454c90776</t>
         </is>
       </c>
-      <c r="C117" t="b">
-        <v>1</v>
-      </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1123r.csv</t>
         </is>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="F117" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="inlineStr">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>46c273a6-b8be-46ea-96cd-72903780d43d</t>
         </is>
       </c>
-      <c r="C118" t="b">
-        <v>1</v>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1141r.csv</t>
         </is>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="F118" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>1</v>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>b541f5c9-93fe-4ef3-9fe7-38493b8aa8a8</t>
         </is>
       </c>
-      <c r="C119" t="b">
-        <v>1</v>
-      </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1156r.csv</t>
         </is>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="F119" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>0b1d6253-9c4f-43b7-8217-6f0e486aabe7</t>
         </is>
       </c>
-      <c r="C120" t="b">
-        <v>1</v>
-      </c>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>Double runs removed/22.03.16.1215r.csv</t>
         </is>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="F120" s="2" t="n">
         <v>44636</v>
       </c>
-      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>1</v>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>91a84c6a-ba27-4116-8644-e5373b3588de</t>
         </is>
       </c>
-      <c r="C121" t="b">
-        <v>1</v>
-      </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Double runs removed/22.12.01.1546r.csv</t>
         </is>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="F121" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="inlineStr">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>06574b6f-ab02-432c-9a65-7b031218a270</t>
         </is>
       </c>
-      <c r="C122" t="b">
+      <c r="D122" t="b">
         <v>0</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>v.1.0/Clean 06574b6f-ab02-432c-9a65-7b031218a270.csv</t>
         </is>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="F122" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" t="inlineStr">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>0b891add-e0c3-463d-948d-7f491f1d10ef</t>
         </is>
       </c>
-      <c r="C123" t="b">
+      <c r="D123" t="b">
         <v>0</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>v.1.0/Clean 0b891add-e0c3-463d-948d-7f491f1d10ef.csv</t>
         </is>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="F123" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>1</v>
-      </c>
-      <c r="B124" t="inlineStr">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>158e6365-673b-4030-8b36-6704be5996a2</t>
         </is>
       </c>
-      <c r="C124" t="b">
-        <v>1</v>
-      </c>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>v.1.0/Clean 158e6365-673b-4030-8b36-6704be5996a2.csv</t>
         </is>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="F124" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>1</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>2310f107-d9d2-418e-a2d7-dd7a17924544</t>
         </is>
       </c>
-      <c r="C125" t="b">
-        <v>1</v>
-      </c>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>v.1.0/Clean 2310f107-d9d2-418e-a2d7-dd7a17924544.csv</t>
         </is>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="F125" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>1</v>
-      </c>
-      <c r="B126" t="inlineStr">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>274ce308-c366-4829-b9cc-d535b51d16d3</t>
         </is>
       </c>
-      <c r="C126" t="b">
+      <c r="D126" t="b">
         <v>0</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>v.1.0/Clean 274ce308-c366-4829-b9cc-d535b51d16d3.csv</t>
         </is>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="F126" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>1</v>
-      </c>
-      <c r="B127" t="inlineStr">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>3878e926-44dc-4ab4-af28-d4293f0d499b</t>
         </is>
       </c>
-      <c r="C127" t="b">
+      <c r="D127" t="b">
         <v>0</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>v.1.0/Clean 3878e926-44dc-4ab4-af28-d4293f0d499b.csv</t>
         </is>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="F127" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="inlineStr">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>46294fe1-e286-4772-8f71-3335a69a8dd2</t>
         </is>
       </c>
-      <c r="C128" t="b">
+      <c r="D128" t="b">
         <v>0</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>v.1.0/Clean 46294fe1-e286-4772-8f71-3335a69a8dd2.csv</t>
         </is>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="F128" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>1</v>
-      </c>
-      <c r="B129" t="inlineStr">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>47bb9911-6096-4703-8551-4a0f8cb1063a</t>
         </is>
       </c>
-      <c r="C129" t="b">
-        <v>1</v>
-      </c>
-      <c r="D129" t="inlineStr">
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>v.1.0/Clean 47bb9911-6096-4703-8551-4a0f8cb1063a.csv</t>
         </is>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="F129" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>4a219569-77fc-41c2-8244-42888b25fec3</t>
         </is>
       </c>
-      <c r="C130" t="b">
-        <v>1</v>
-      </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>v.1.0/Clean 4a219569-77fc-41c2-8244-42888b25fec3.csv</t>
         </is>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="F130" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>5254234d-5334-44d0-a97b-d0e098c129a9</t>
         </is>
       </c>
-      <c r="C131" t="b">
-        <v>1</v>
-      </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>v.1.0/Clean 5254234d-5334-44d0-a97b-d0e098c129a9.csv</t>
         </is>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="F131" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>5fa79a8e-a2df-4bb9-b614-f3ce36a5edb0</t>
         </is>
       </c>
-      <c r="C132" t="b">
+      <c r="D132" t="b">
         <v>0</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>v.1.0/Clean 5fa79a8e-a2df-4bb9-b614-f3ce36a5edb0.csv</t>
         </is>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="F132" s="2" t="n">
         <v>45068</v>
       </c>
-      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="inlineStr">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
         <is>
           <t>724fdf45-3165-43b8-b9ca-dc07102d2886</t>
         </is>
       </c>
-      <c r="C133" t="b">
+      <c r="D133" t="b">
         <v>0</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>v.1.0/Clean 724fdf45-3165-43b8-b9ca-dc07102d2886.csv</t>
         </is>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="F133" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" t="inlineStr">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>845d87c5-7b8b-4bf3-bfc6-91c74e285243</t>
         </is>
       </c>
-      <c r="C134" t="b">
+      <c r="D134" t="b">
         <v>0</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>v.1.0/Clean 845d87c5-7b8b-4bf3-bfc6-91c74e285243.csv</t>
         </is>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="F134" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>1</v>
-      </c>
-      <c r="B135" t="inlineStr">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>a2a38d07-04c7-4b02-839e-83dc10e516ba</t>
         </is>
       </c>
-      <c r="C135" t="b">
-        <v>1</v>
-      </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>v.1.0/Clean a2a38d07-04c7-4b02-839e-83dc10e516ba.csv</t>
         </is>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="F135" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" t="inlineStr">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>a6b7ff70-3b20-48c6-86e8-744bad19f7d7</t>
         </is>
       </c>
-      <c r="C136" t="b">
-        <v>1</v>
-      </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>v.1.0/Clean a6b7ff70-3b20-48c6-86e8-744bad19f7d7.csv</t>
         </is>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="F136" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>1</v>
-      </c>
-      <c r="B137" t="inlineStr">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>bacbc0b6-5966-4fda-a5dd-c67a3cd9b2c9</t>
         </is>
       </c>
-      <c r="C137" t="b">
-        <v>1</v>
-      </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>v.1.0/Clean bacbc0b6-5966-4fda-a5dd-c67a3cd9b2c9.csv</t>
         </is>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="F137" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>1</v>
-      </c>
-      <c r="B138" t="inlineStr">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>c6a48228-d864-4b20-93dd-8ad0d78d59c0</t>
         </is>
       </c>
-      <c r="C138" t="b">
-        <v>1</v>
-      </c>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>v.1.0/Clean c6a48228-d864-4b20-93dd-8ad0d78d59c0.csv</t>
         </is>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="F138" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1</v>
-      </c>
-      <c r="B139" t="inlineStr">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>d2e4a5df-fd46-47d5-923f-089f1ee4e1ec</t>
         </is>
       </c>
-      <c r="C139" t="b">
-        <v>1</v>
-      </c>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>v.1.0/Clean d2e4a5df-fd46-47d5-923f-089f1ee4e1ec.csv</t>
         </is>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="F139" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" t="inlineStr">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>d90f2d85-e91c-4f12-b070-5929d95be1c5</t>
         </is>
       </c>
-      <c r="C140" t="b">
-        <v>1</v>
-      </c>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>v.1.0/Clean d90f2d85-e91c-4f12-b070-5929d95be1c5.csv</t>
         </is>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="F140" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>1</v>
-      </c>
-      <c r="B141" t="inlineStr">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>db948ce1-783d-4dff-a1f8-2be49570f327</t>
         </is>
       </c>
-      <c r="C141" t="b">
-        <v>1</v>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>v.1.0/Clean db948ce1-783d-4dff-a1f8-2be49570f327.csv</t>
         </is>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="F141" s="2" t="n">
         <v>44993</v>
       </c>
-      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B142" t="inlineStr">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>e78faf41-7bbd-410b-8750-e4e72b951216</t>
         </is>
       </c>
-      <c r="C142" t="b">
-        <v>1</v>
-      </c>
-      <c r="D142" t="inlineStr">
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>v.1.0/Clean e78faf41-7bbd-410b-8750-e4e72b951216.csv</t>
         </is>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="F142" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" t="inlineStr">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>e9632b3b-77f2-4f62-a778-5d6a4242aa3b</t>
         </is>
       </c>
-      <c r="C143" t="b">
+      <c r="D143" t="b">
         <v>0</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>v.1.0/Clean e9632b3b-77f2-4f62-a778-5d6a4242aa3b.csv</t>
         </is>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="F143" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>1</v>
-      </c>
-      <c r="B144" t="inlineStr">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>f90a6408-2a18-49b4-8a6b-edee48e7e9ed</t>
         </is>
       </c>
-      <c r="C144" t="b">
-        <v>1</v>
-      </c>
-      <c r="D144" t="inlineStr">
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>v.1.0/Clean Marty18.csv</t>
         </is>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="F144" s="2" t="n">
         <v>44992</v>
       </c>
-      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>1</v>
-      </c>
-      <c r="B145" t="inlineStr">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>2be0000b-9e0b-414f-a540-c495ffc28404</t>
         </is>
       </c>
-      <c r="C145" t="b">
-        <v>1</v>
-      </c>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>v.1.0/clean-2be0000b-9e0b-414f-a540-c495ffc28404.csv</t>
         </is>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="F145" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>1</v>
-      </c>
-      <c r="B146" t="inlineStr">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>2dd0d21c-1633-47de-848a-317df7ea3180</t>
         </is>
       </c>
-      <c r="C146" t="b">
+      <c r="D146" t="b">
         <v>0</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>v.1.0/clean-2dd0d21c-1633-47de-848a-317df7ea3180.csv</t>
         </is>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="F146" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>1</v>
-      </c>
-      <c r="B147" t="inlineStr">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>3817ac9f-7150-46de-80aa-1b376f6c8a62</t>
         </is>
       </c>
-      <c r="C147" t="b">
+      <c r="D147" t="b">
         <v>0</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>v.1.0/clean-3817ac9f-7150-46de-80aa-1b376f6c8a62.csv</t>
         </is>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="F147" s="2" t="n">
         <v>45057</v>
       </c>
-      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" t="inlineStr">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>39f689fe-757c-4546-9ded-b695808be738</t>
         </is>
       </c>
-      <c r="C148" t="b">
+      <c r="D148" t="b">
         <v>0</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>v.1.0/clean-39f689fe-757c-4546-9ded-b695808be738.csv</t>
         </is>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="F148" s="2" t="n">
         <v>45085</v>
       </c>
-      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>1</v>
-      </c>
-      <c r="B149" t="inlineStr">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>446f0cb1-dceb-40f4-8bba-db5c07f67571</t>
         </is>
       </c>
-      <c r="C149" t="b">
+      <c r="D149" t="b">
         <v>0</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>v.1.0/clean-446f0cb1-dceb-40f4-8bba-db5c07f67571.csv</t>
         </is>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="F149" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="inlineStr">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>4727e60f-7e08-4595-b565-b6e80b7a8d87</t>
         </is>
       </c>
-      <c r="C150" t="b">
-        <v>1</v>
-      </c>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>v.1.0/clean-4727e60f-7e08-4595-b565-b6e80b7a8d87.csv</t>
         </is>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="F150" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="inlineStr">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>6d21f440-1c45-4c53-ad64-4edb92a94e25</t>
         </is>
       </c>
-      <c r="C151" t="b">
-        <v>1</v>
-      </c>
-      <c r="D151" t="inlineStr">
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>v.1.0/clean-6d21f440-1c45-4c53-ad64-4edb92a94e25.csv</t>
         </is>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="F151" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="inlineStr">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>705ac61e-38b7-4b89-8778-4ea58bad18a6</t>
         </is>
       </c>
-      <c r="C152" t="b">
-        <v>1</v>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>v.1.0/clean-705ac61e-38b7-4b89-8778-4ea58bad18a6.csv</t>
         </is>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="F152" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>1</v>
-      </c>
-      <c r="B153" t="inlineStr">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>7994d633-9b4d-475e-8e49-51cb6e4fea4b</t>
         </is>
       </c>
-      <c r="C153" t="b">
+      <c r="D153" t="b">
         <v>0</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>v.1.0/clean-7994d633-9b4d-475e-8e49-51cb6e4fea4b.csv</t>
         </is>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="F153" s="2" t="n">
         <v>45057</v>
       </c>
-      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>1</v>
-      </c>
-      <c r="B154" t="inlineStr">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>7e75d331-2643-4271-a67e-af24bff68001</t>
         </is>
       </c>
-      <c r="C154" t="b">
-        <v>1</v>
-      </c>
-      <c r="D154" t="inlineStr">
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>v.1.0/clean-7e75d331-2643-4271-a67e-af24bff68001.csv</t>
         </is>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="F154" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="inlineStr">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>93d6665a-9210-4bb9-b084-69d6e7335d04</t>
         </is>
       </c>
-      <c r="C155" t="b">
+      <c r="D155" t="b">
         <v>0</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>v.1.0/clean-93d6665a-9210-4bb9-b084-69d6e7335d04.csv</t>
         </is>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="F155" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>1</v>
-      </c>
-      <c r="B156" t="inlineStr">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>95a83c35-3575-461a-9a53-8aa09c8afa62</t>
         </is>
       </c>
-      <c r="C156" t="b">
+      <c r="D156" t="b">
         <v>0</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>v.1.0/clean-95a83c35-3575-461a-9a53-8aa09c8afa62.csv</t>
         </is>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="F156" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>1</v>
-      </c>
-      <c r="B157" t="inlineStr">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>a0987257-801e-44c5-a1ad-81e0083bfa46</t>
         </is>
       </c>
-      <c r="C157" t="b">
+      <c r="D157" t="b">
         <v>0</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>v.1.0/clean-a0987257-801e-44c5-a1ad-81e0083bfa46.csv</t>
         </is>
       </c>
-      <c r="E157" s="2" t="n">
+      <c r="F157" s="2" t="n">
         <v>45089</v>
       </c>
-      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>1</v>
-      </c>
-      <c r="B158" t="inlineStr">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
         <is>
           <t>a118a19a-0126-48ea-9d7b-7762f8e99926</t>
         </is>
       </c>
-      <c r="C158" t="b">
-        <v>1</v>
-      </c>
-      <c r="D158" t="inlineStr">
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>v.1.0/clean-a118a19a-0126-48ea-9d7b-7762f8e99926.csv</t>
         </is>
       </c>
-      <c r="E158" s="2" t="n">
+      <c r="F158" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>1</v>
-      </c>
-      <c r="B159" t="inlineStr">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>ad2137d0-d5aa-4a4e-af02-e327993c6d41</t>
         </is>
       </c>
-      <c r="C159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>v.1.0/clean-ad2137d0-d5aa-4a4e-af02-e327993c6d41.csv</t>
         </is>
       </c>
-      <c r="E159" s="2" t="n">
+      <c r="F159" s="2" t="n">
         <v>45089</v>
       </c>
-      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="B160" t="inlineStr">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>d9d58da9-9bdc-41ea-90fe-4c84db4635d9</t>
         </is>
       </c>
-      <c r="C160" t="b">
-        <v>1</v>
-      </c>
-      <c r="D160" t="inlineStr">
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>v.1.3/d9d58da9-9bdc-41ea-90fe-4c84db4635d9.csv</t>
         </is>
       </c>
-      <c r="E160" s="2" t="n">
+      <c r="F160" s="2" t="n">
         <v>45180</v>
       </c>
-      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
